--- a/Vivienda/28.6.xlsx
+++ b/Vivienda/28.6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Vivienda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Vivienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B51E790-04E3-48B2-9F33-393C5184FE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0835D499-3E4E-4742-A3B8-97FD0B118DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Poblacion cumple estandar dist " sheetId="1" r:id="rId1"/>
@@ -927,7 +927,7 @@
   <dimension ref="A1:I235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Vivienda/28.6.xlsx
+++ b/Vivienda/28.6.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,23 +10,32 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0835D499-3E4E-4742-A3B8-97FD0B118DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Poblacion cumple estandar dist " sheetId="1" r:id="rId1"/>
     <sheet name="Tablas auxiliares" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="147">
   <si>
     <t>Codreg</t>
   </si>
@@ -46,12 +55,24 @@
     <t>Año</t>
   </si>
   <si>
+    <t>ID Indicador</t>
+  </si>
+  <si>
+    <t>Indicador</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
     <t>Iquique</t>
   </si>
   <si>
     <t>Tarapacá</t>
   </si>
   <si>
+    <t>Población que cumple con estándar de distancia a plazas</t>
+  </si>
+  <si>
     <t>Alto Hospicio</t>
   </si>
   <si>
@@ -430,9 +451,6 @@
     <t>San Carlos</t>
   </si>
   <si>
-    <t>Población que cumple con estándar de distancia a plazas</t>
-  </si>
-  <si>
     <t>Porcentaje de población atendida por plazas públicas</t>
   </si>
   <si>
@@ -454,20 +472,18 @@
     <t>http://siedu.ine.cl/descargar/INDICADORES.rar</t>
   </si>
   <si>
-    <t>Indicador</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>ID Indicador</t>
+    <t>definicion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El indicador mide la capacidad de carga de la oferta de las plazas públicas del área urbana respecto a la población. Entendiendo, la “población” como la sumatoria de los habitantes por manzana del Censo 2017 existente en las manzanas que cumplen con el estándar de distancia de 400 metros a plazas públicas (indicador BPU_20) y considerando a la “superficie de plazas públicas del área urbana” como la sumatoria de la superficie de aquellas plazas públicas donde la población se encuentra a 400 metros o menos de distancia, expresada en metros cuadrados. Esto evalúa mediante análisis de redes y la matriz origen – destino.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,11 +519,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,6 +677,16 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Link" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03513DF4-6C2A-4824-93DE-7B6D2FC05902}" name="Tabla2" displayName="Tabla2" ref="A10:A12" totalsRowShown="0">
+  <autoFilter ref="A10:A12" xr:uid="{A23C45B0-F6B6-4303-BA1C-19D2CDCF0821}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{DF238850-6CA7-4A94-BD0F-2BF0D3B648EA}" name="definicion"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -926,17 +955,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="7" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -956,16 +985,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -976,10 +1005,10 @@
         <v>1101</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2018</v>
@@ -988,13 +1017,13 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I2">
         <v>154917</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1005,10 +1034,10 @@
         <v>1107</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2018</v>
@@ -1017,13 +1046,13 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I3">
         <v>83991</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1034,10 +1063,10 @@
         <v>2101</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>2018</v>
@@ -1046,13 +1075,13 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I4">
         <v>190693</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1063,10 +1092,10 @@
         <v>2201</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>2018</v>
@@ -1075,13 +1104,13 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I5">
         <v>126444</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1092,10 +1121,10 @@
         <v>3101</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>2018</v>
@@ -1104,13 +1133,13 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I6">
         <v>127757</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1121,10 +1150,10 @@
         <v>3103</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>2018</v>
@@ -1133,13 +1162,13 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I7">
         <v>8180</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1150,10 +1179,10 @@
         <v>3301</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>2018</v>
@@ -1162,13 +1191,13 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I8">
         <v>38100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1179,10 +1208,10 @@
         <v>4101</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F9">
         <v>2018</v>
@@ -1191,13 +1220,13 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I9">
         <v>159072</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -1208,10 +1237,10 @@
         <v>4102</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <v>2018</v>
@@ -1220,13 +1249,13 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I10">
         <v>170927</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -1237,10 +1266,10 @@
         <v>4301</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F11">
         <v>2018</v>
@@ -1249,13 +1278,13 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I11">
         <v>76374</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -1266,10 +1295,10 @@
         <v>5101</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F12">
         <v>2018</v>
@@ -1278,13 +1307,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I12">
         <v>100996</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -1295,10 +1324,10 @@
         <v>5102</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F13">
         <v>2018</v>
@@ -1307,13 +1336,13 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I13">
         <v>12837</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -1324,10 +1353,10 @@
         <v>5103</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F14">
         <v>2018</v>
@@ -1336,13 +1365,13 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I14">
         <v>28341</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -1353,10 +1382,10 @@
         <v>5105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F15">
         <v>2018</v>
@@ -1365,13 +1394,13 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I15">
         <v>3203</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -1382,11 +1411,11 @@
         <v>5107</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F16">
         <v>2018</v>
       </c>
@@ -1394,13 +1423,13 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I16">
         <v>12856</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -1411,10 +1440,10 @@
         <v>5109</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F17">
         <v>2018</v>
@@ -1423,13 +1452,13 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I17">
         <v>186775</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -1440,10 +1469,10 @@
         <v>5301</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F18">
         <v>2018</v>
@@ -1452,13 +1481,13 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I18">
         <v>55612</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -1469,10 +1498,10 @@
         <v>5304</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F19">
         <v>2018</v>
@@ -1481,13 +1510,13 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I19">
         <v>9848</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -1498,10 +1527,10 @@
         <v>5501</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F20">
         <v>2018</v>
@@ -1510,13 +1539,13 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I20">
         <v>51672</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -1527,10 +1556,10 @@
         <v>5502</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F21">
         <v>2018</v>
@@ -1539,13 +1568,13 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I21">
         <v>29782</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -1556,10 +1585,10 @@
         <v>5503</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F22">
         <v>2018</v>
@@ -1568,13 +1597,13 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I22">
         <v>6182</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -1585,10 +1614,10 @@
         <v>5504</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F23">
         <v>2018</v>
@@ -1597,13 +1626,13 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I23">
         <v>10375</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>5</v>
       </c>
@@ -1614,10 +1643,10 @@
         <v>5601</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F24">
         <v>2018</v>
@@ -1626,13 +1655,13 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I24">
         <v>64789</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -1643,10 +1672,10 @@
         <v>5603</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F25">
         <v>2018</v>
@@ -1655,13 +1684,13 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I25">
         <v>8512</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -1672,10 +1701,10 @@
         <v>5606</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F26">
         <v>2018</v>
@@ -1684,13 +1713,13 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I26">
         <v>3439</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -1701,10 +1730,10 @@
         <v>5701</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F27">
         <v>2018</v>
@@ -1713,13 +1742,13 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I27">
         <v>55847</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>5</v>
       </c>
@@ -1730,10 +1759,10 @@
         <v>5801</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F28">
         <v>2018</v>
@@ -1742,13 +1771,13 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I28">
         <v>62918</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -1759,10 +1788,10 @@
         <v>5802</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F29">
         <v>2018</v>
@@ -1771,13 +1800,13 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I29">
         <v>23280</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>5</v>
       </c>
@@ -1788,10 +1817,10 @@
         <v>5803</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F30">
         <v>2018</v>
@@ -1800,13 +1829,13 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I30">
         <v>3525</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -1817,10 +1846,10 @@
         <v>5804</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F31">
         <v>2018</v>
@@ -1829,13 +1858,13 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I31">
         <v>75943</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -1846,10 +1875,10 @@
         <v>6101</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F32">
         <v>2018</v>
@@ -1858,13 +1887,13 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I32">
         <v>212718</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -1875,10 +1904,10 @@
         <v>6108</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F33">
         <v>2018</v>
@@ -1887,13 +1916,13 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I33">
         <v>40590</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>6</v>
       </c>
@@ -1904,10 +1933,10 @@
         <v>6115</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F34">
         <v>2018</v>
@@ -1916,13 +1945,13 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I34">
         <v>38488</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>6</v>
       </c>
@@ -1933,10 +1962,10 @@
         <v>6301</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F35">
         <v>2018</v>
@@ -1945,13 +1974,13 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I35">
         <v>52143</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>7</v>
       </c>
@@ -1962,10 +1991,10 @@
         <v>7101</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F36">
         <v>2018</v>
@@ -1974,13 +2003,13 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I36">
         <v>184849</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>7</v>
       </c>
@@ -1991,10 +2020,10 @@
         <v>7102</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F37">
         <v>2018</v>
@@ -2003,13 +2032,13 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I37">
         <v>11411</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>7</v>
       </c>
@@ -2020,10 +2049,10 @@
         <v>7105</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F38">
         <v>2018</v>
@@ -2032,13 +2061,13 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I38">
         <v>34004</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>7</v>
       </c>
@@ -2049,10 +2078,10 @@
         <v>7301</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F39">
         <v>2018</v>
@@ -2061,13 +2090,13 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I39">
         <v>111498</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>7</v>
       </c>
@@ -2078,10 +2107,10 @@
         <v>7305</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F40">
         <v>2018</v>
@@ -2090,13 +2119,13 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I40">
         <v>4776</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>7</v>
       </c>
@@ -2107,10 +2136,10 @@
         <v>7306</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F41">
         <v>2018</v>
@@ -2119,13 +2148,13 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I41">
         <v>4506</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>7</v>
       </c>
@@ -2136,11 +2165,11 @@
         <v>7401</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F42">
         <v>2018</v>
       </c>
@@ -2148,13 +2177,13 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I42">
         <v>65446</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>8</v>
       </c>
@@ -2165,10 +2194,10 @@
         <v>8101</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F43">
         <v>2018</v>
@@ -2177,13 +2206,13 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I43">
         <v>155100</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>8</v>
       </c>
@@ -2194,10 +2223,10 @@
         <v>8102</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F44">
         <v>2018</v>
@@ -2206,13 +2235,13 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I44">
         <v>90496</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>8</v>
       </c>
@@ -2223,10 +2252,10 @@
         <v>8103</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F45">
         <v>2018</v>
@@ -2235,13 +2264,13 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I45">
         <v>63354</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>8</v>
       </c>
@@ -2252,10 +2281,10 @@
         <v>8105</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F46">
         <v>2018</v>
@@ -2264,13 +2293,13 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I46">
         <v>13592</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>8</v>
       </c>
@@ -2281,10 +2310,10 @@
         <v>8106</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F47">
         <v>2018</v>
@@ -2293,13 +2322,13 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I47">
         <v>25301</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>8</v>
       </c>
@@ -2310,11 +2339,11 @@
         <v>8107</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="F48">
         <v>2018</v>
       </c>
@@ -2322,13 +2351,13 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I48">
         <v>35762</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>8</v>
       </c>
@@ -2339,10 +2368,10 @@
         <v>8108</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F49">
         <v>2018</v>
@@ -2351,13 +2380,13 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I49">
         <v>109200</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>8</v>
       </c>
@@ -2368,10 +2397,10 @@
         <v>8109</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F50">
         <v>2018</v>
@@ -2380,13 +2409,13 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I50">
         <v>7664</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>8</v>
       </c>
@@ -2397,10 +2426,10 @@
         <v>8110</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F51">
         <v>2018</v>
@@ -2409,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I51">
         <v>100476</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>8</v>
       </c>
@@ -2426,10 +2455,10 @@
         <v>8111</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F52">
         <v>2018</v>
@@ -2438,13 +2467,13 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I52">
         <v>12174</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>8</v>
       </c>
@@ -2455,10 +2484,10 @@
         <v>8112</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F53">
         <v>2018</v>
@@ -2467,13 +2496,13 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I53">
         <v>86243</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>8</v>
       </c>
@@ -2484,10 +2513,10 @@
         <v>8301</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F54">
         <v>2018</v>
@@ -2496,13 +2525,13 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I54">
         <v>118037</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>8</v>
       </c>
@@ -2513,10 +2542,10 @@
         <v>8306</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F55">
         <v>2018</v>
@@ -2525,13 +2554,13 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I55">
         <v>17142</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>9</v>
       </c>
@@ -2542,10 +2571,10 @@
         <v>9101</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F56">
         <v>2018</v>
@@ -2554,13 +2583,13 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I56">
         <v>221256</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>9</v>
       </c>
@@ -2571,10 +2600,10 @@
         <v>9112</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F57">
         <v>2018</v>
@@ -2583,13 +2612,13 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I57">
         <v>38429</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>9</v>
       </c>
@@ -2600,10 +2629,10 @@
         <v>9120</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F58">
         <v>2018</v>
@@ -2612,13 +2641,13 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I58">
         <v>22595</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>9</v>
       </c>
@@ -2629,10 +2658,10 @@
         <v>9201</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F59">
         <v>2018</v>
@@ -2641,13 +2670,13 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I59">
         <v>36405</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>10</v>
       </c>
@@ -2658,10 +2687,10 @@
         <v>10101</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F60">
         <v>2018</v>
@@ -2670,13 +2699,13 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I60">
         <v>173650</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>10</v>
       </c>
@@ -2687,10 +2716,10 @@
         <v>10109</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F61">
         <v>2018</v>
@@ -2699,13 +2728,13 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I61">
         <v>28490</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>10</v>
       </c>
@@ -2716,10 +2745,10 @@
         <v>10201</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F62">
         <v>2018</v>
@@ -2728,13 +2757,13 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I62">
         <v>21988</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>10</v>
       </c>
@@ -2745,10 +2774,10 @@
         <v>10301</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F63">
         <v>2018</v>
@@ -2757,13 +2786,13 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I63">
         <v>133116</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>11</v>
       </c>
@@ -2774,10 +2803,10 @@
         <v>11101</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F64">
         <v>2018</v>
@@ -2786,13 +2815,13 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I64">
         <v>43358</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>12</v>
       </c>
@@ -2803,10 +2832,10 @@
         <v>12101</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F65">
         <v>2018</v>
@@ -2815,13 +2844,13 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I65">
         <v>94424</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>13</v>
       </c>
@@ -2832,10 +2861,10 @@
         <v>13101</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F66">
         <v>2018</v>
@@ -2844,13 +2873,13 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I66">
         <v>272873</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>13</v>
       </c>
@@ -2861,10 +2890,10 @@
         <v>13102</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F67">
         <v>2018</v>
@@ -2873,13 +2902,13 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I67">
         <v>69067</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>13</v>
       </c>
@@ -2890,10 +2919,10 @@
         <v>13103</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F68">
         <v>2018</v>
@@ -2902,13 +2931,13 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I68">
         <v>124231</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>13</v>
       </c>
@@ -2919,10 +2948,10 @@
         <v>13104</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F69">
         <v>2018</v>
@@ -2931,13 +2960,13 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I69">
         <v>118977</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>13</v>
       </c>
@@ -2948,10 +2977,10 @@
         <v>13105</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F70">
         <v>2018</v>
@@ -2960,13 +2989,13 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I70">
         <v>129659</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>13</v>
       </c>
@@ -2977,10 +3006,10 @@
         <v>13106</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F71">
         <v>2018</v>
@@ -2989,13 +3018,13 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I71">
         <v>109213</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>13</v>
       </c>
@@ -3006,10 +3035,10 @@
         <v>13107</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F72">
         <v>2018</v>
@@ -3018,13 +3047,13 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I72">
         <v>84095</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
         <v>13</v>
       </c>
@@ -3035,10 +3064,10 @@
         <v>13108</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F73">
         <v>2018</v>
@@ -3047,13 +3076,13 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I73">
         <v>70732</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
         <v>13</v>
       </c>
@@ -3064,10 +3093,10 @@
         <v>13109</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F74">
         <v>2018</v>
@@ -3076,13 +3105,13 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I74">
         <v>49767</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
         <v>13</v>
       </c>
@@ -3093,10 +3122,10 @@
         <v>13110</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F75">
         <v>2018</v>
@@ -3105,13 +3134,13 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I75">
         <v>334668</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>13</v>
       </c>
@@ -3122,10 +3151,10 @@
         <v>13111</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F76">
         <v>2018</v>
@@ -3134,13 +3163,13 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I76">
         <v>101219</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="1">
         <v>13</v>
       </c>
@@ -3151,10 +3180,10 @@
         <v>13112</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F77">
         <v>2018</v>
@@ -3163,13 +3192,13 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I77">
         <v>168372</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
         <v>13</v>
       </c>
@@ -3180,10 +3209,10 @@
         <v>13113</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F78">
         <v>2018</v>
@@ -3192,13 +3221,13 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I78">
         <v>48966</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="1">
         <v>13</v>
       </c>
@@ -3209,10 +3238,10 @@
         <v>13114</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F79">
         <v>2018</v>
@@ -3221,13 +3250,13 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I79">
         <v>217537</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="1">
         <v>13</v>
       </c>
@@ -3238,10 +3267,10 @@
         <v>13115</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F80">
         <v>2018</v>
@@ -3250,13 +3279,13 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I80">
         <v>66190</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="1">
         <v>13</v>
       </c>
@@ -3267,10 +3296,10 @@
         <v>13116</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F81">
         <v>2018</v>
@@ -3279,13 +3308,13 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I81">
         <v>90826</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="1">
         <v>13</v>
       </c>
@@ -3296,10 +3325,10 @@
         <v>13117</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F82">
         <v>2018</v>
@@ -3308,13 +3337,13 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I82">
         <v>91501</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="1">
         <v>13</v>
       </c>
@@ -3325,10 +3354,10 @@
         <v>13118</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F83">
         <v>2018</v>
@@ -3337,13 +3366,13 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I83">
         <v>100399</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>13</v>
       </c>
@@ -3354,10 +3383,10 @@
         <v>13119</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F84">
         <v>2018</v>
@@ -3366,13 +3395,13 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I84">
         <v>502507</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>13</v>
       </c>
@@ -3383,10 +3412,10 @@
         <v>13120</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F85">
         <v>2018</v>
@@ -3395,13 +3424,13 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I85">
         <v>131482</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>13</v>
       </c>
@@ -3412,10 +3441,10 @@
         <v>13121</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F86">
         <v>2018</v>
@@ -3424,13 +3453,13 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I86">
         <v>85958</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>13</v>
       </c>
@@ -3441,10 +3470,10 @@
         <v>13122</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F87">
         <v>2018</v>
@@ -3453,13 +3482,13 @@
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I87">
         <v>217835</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>13</v>
       </c>
@@ -3470,10 +3499,10 @@
         <v>13123</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F88">
         <v>2018</v>
@@ -3482,13 +3511,13 @@
         <v>1</v>
       </c>
       <c r="H88" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I88">
         <v>91379</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="1">
         <v>13</v>
       </c>
@@ -3499,10 +3528,10 @@
         <v>13124</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F89">
         <v>2018</v>
@@ -3511,13 +3540,13 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I89">
         <v>210624</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="1">
         <v>13</v>
       </c>
@@ -3528,10 +3557,10 @@
         <v>13125</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F90">
         <v>2018</v>
@@ -3540,13 +3569,13 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I90">
         <v>197464</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="1">
         <v>13</v>
       </c>
@@ -3557,10 +3586,10 @@
         <v>13126</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F91">
         <v>2018</v>
@@ -3569,13 +3598,13 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I91">
         <v>69389</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="1">
         <v>13</v>
       </c>
@@ -3586,10 +3615,10 @@
         <v>13127</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F92">
         <v>2018</v>
@@ -3598,13 +3627,13 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I92">
         <v>130141</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="1">
         <v>13</v>
       </c>
@@ -3615,10 +3644,10 @@
         <v>13128</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F93">
         <v>2018</v>
@@ -3627,13 +3656,13 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I93">
         <v>133740</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="1">
         <v>13</v>
       </c>
@@ -3644,10 +3673,10 @@
         <v>13129</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F94">
         <v>2018</v>
@@ -3656,13 +3685,13 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I94">
         <v>79242</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="1">
         <v>13</v>
       </c>
@@ -3673,10 +3702,10 @@
         <v>13130</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F95">
         <v>2018</v>
@@ -3685,13 +3714,13 @@
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I95">
         <v>50862</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="1">
         <v>13</v>
       </c>
@@ -3702,10 +3731,10 @@
         <v>13131</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F96">
         <v>2018</v>
@@ -3714,13 +3743,13 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I96">
         <v>70193</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="1">
         <v>13</v>
       </c>
@@ -3731,10 +3760,10 @@
         <v>13132</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F97">
         <v>2018</v>
@@ -3743,13 +3772,13 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I97">
         <v>47736</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="1">
         <v>13</v>
       </c>
@@ -3760,10 +3789,10 @@
         <v>13201</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F98">
         <v>2018</v>
@@ -3772,13 +3801,13 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I98">
         <v>534876</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="1">
         <v>13</v>
       </c>
@@ -3789,10 +3818,10 @@
         <v>13202</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F99">
         <v>2018</v>
@@ -3801,13 +3830,13 @@
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I99">
         <v>3792</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="1">
         <v>13</v>
       </c>
@@ -3818,10 +3847,10 @@
         <v>13203</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F100">
         <v>2018</v>
@@ -3830,13 +3859,13 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I100">
         <v>4401</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="1">
         <v>13</v>
       </c>
@@ -3847,10 +3876,10 @@
         <v>13301</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F101">
         <v>2018</v>
@@ -3859,13 +3888,13 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I101">
         <v>88632</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="1">
         <v>13</v>
       </c>
@@ -3876,10 +3905,10 @@
         <v>13302</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F102">
         <v>2018</v>
@@ -3888,13 +3917,13 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I102">
         <v>56765</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="1">
         <v>13</v>
       </c>
@@ -3905,10 +3934,10 @@
         <v>13303</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F103">
         <v>2018</v>
@@ -3917,13 +3946,13 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I103">
         <v>6774</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="1">
         <v>13</v>
       </c>
@@ -3934,10 +3963,10 @@
         <v>13401</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F104">
         <v>2018</v>
@@ -3946,13 +3975,13 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I104">
         <v>263020</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="1">
         <v>13</v>
       </c>
@@ -3963,10 +3992,10 @@
         <v>13402</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F105">
         <v>2018</v>
@@ -3975,13 +4004,13 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I105">
         <v>68231</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="1">
         <v>13</v>
       </c>
@@ -3992,10 +4021,10 @@
         <v>13403</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F106">
         <v>2018</v>
@@ -4004,13 +4033,13 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I106">
         <v>7368</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="1">
         <v>13</v>
       </c>
@@ -4021,10 +4050,10 @@
         <v>13404</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F107">
         <v>2018</v>
@@ -4033,13 +4062,13 @@
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I107">
         <v>31400</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="1">
         <v>13</v>
       </c>
@@ -4050,10 +4079,10 @@
         <v>13501</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F108">
         <v>2018</v>
@@ -4062,13 +4091,13 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I108">
         <v>58676</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="1">
         <v>13</v>
       </c>
@@ -4079,10 +4108,10 @@
         <v>13601</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F109">
         <v>2018</v>
@@ -4091,13 +4120,13 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I109">
         <v>51626</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="1">
         <v>13</v>
       </c>
@@ -4108,10 +4137,10 @@
         <v>13602</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F110">
         <v>2018</v>
@@ -4120,13 +4149,13 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I110">
         <v>21860</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="1">
         <v>13</v>
       </c>
@@ -4137,10 +4166,10 @@
         <v>13603</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F111">
         <v>2018</v>
@@ -4149,13 +4178,13 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I111">
         <v>15269</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="1">
         <v>13</v>
       </c>
@@ -4166,10 +4195,10 @@
         <v>13604</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F112">
         <v>2018</v>
@@ -4178,13 +4207,13 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I112">
         <v>45158</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="1">
         <v>13</v>
       </c>
@@ -4195,10 +4224,10 @@
         <v>13605</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F113">
         <v>2018</v>
@@ -4207,13 +4236,13 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I113">
         <v>59872</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="1">
         <v>14</v>
       </c>
@@ -4224,10 +4253,10 @@
         <v>14101</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F114">
         <v>2018</v>
@@ -4236,13 +4265,13 @@
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I114">
         <v>117776</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="1">
         <v>15</v>
       </c>
@@ -4253,10 +4282,10 @@
         <v>15101</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F115">
         <v>2018</v>
@@ -4265,13 +4294,13 @@
         <v>1</v>
       </c>
       <c r="H115" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I115">
         <v>154433</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="1">
         <v>16</v>
       </c>
@@ -4282,10 +4311,10 @@
         <v>16101</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F116">
         <v>2018</v>
@@ -4294,13 +4323,13 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I116">
         <v>145225</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="1">
         <v>16</v>
       </c>
@@ -4311,10 +4340,10 @@
         <v>16103</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F117">
         <v>2018</v>
@@ -4323,13 +4352,13 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I117">
         <v>18791</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="1">
         <v>16</v>
       </c>
@@ -4340,10 +4369,10 @@
         <v>16301</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F118">
         <v>2018</v>
@@ -4352,13 +4381,13 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="I118">
         <v>27682</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="1">
         <v>1</v>
       </c>
@@ -4369,10 +4398,10 @@
         <v>1101</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F119">
         <v>2018</v>
@@ -4381,13 +4410,13 @@
         <v>2</v>
       </c>
       <c r="H119" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I119">
         <v>82.4</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="1">
         <v>1</v>
       </c>
@@ -4398,10 +4427,10 @@
         <v>1107</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F120">
         <v>2018</v>
@@ -4410,13 +4439,13 @@
         <v>2</v>
       </c>
       <c r="H120" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I120">
         <v>80.91</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="1">
         <v>2</v>
       </c>
@@ -4427,10 +4456,10 @@
         <v>2101</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F121">
         <v>2018</v>
@@ -4439,13 +4468,13 @@
         <v>2</v>
       </c>
       <c r="H121" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I121">
         <v>54.86</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="1">
         <v>2</v>
       </c>
@@ -4456,10 +4485,10 @@
         <v>2201</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F122">
         <v>2018</v>
@@ -4468,13 +4497,13 @@
         <v>2</v>
       </c>
       <c r="H122" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I122">
         <v>80.239999999999995</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="1">
         <v>3</v>
       </c>
@@ -4485,10 +4514,10 @@
         <v>3101</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F123">
         <v>2018</v>
@@ -4497,13 +4526,13 @@
         <v>2</v>
       </c>
       <c r="H123" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I123">
         <v>84.75</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="1">
         <v>3</v>
       </c>
@@ -4514,10 +4543,10 @@
         <v>3103</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F124">
         <v>2018</v>
@@ -4526,13 +4555,13 @@
         <v>2</v>
       </c>
       <c r="H124" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I124">
         <v>83</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="1">
         <v>3</v>
       </c>
@@ -4543,10 +4572,10 @@
         <v>3301</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F125">
         <v>2018</v>
@@ -4555,13 +4584,13 @@
         <v>2</v>
       </c>
       <c r="H125" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I125">
         <v>84.11</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="1">
         <v>4</v>
       </c>
@@ -4572,10 +4601,10 @@
         <v>4101</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F126">
         <v>2018</v>
@@ -4584,13 +4613,13 @@
         <v>2</v>
       </c>
       <c r="H126" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I126">
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="1">
         <v>4</v>
       </c>
@@ -4601,10 +4630,10 @@
         <v>4102</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F127">
         <v>2018</v>
@@ -4613,13 +4642,13 @@
         <v>2</v>
       </c>
       <c r="H127" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I127">
         <v>80.430000000000007</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="1">
         <v>4</v>
       </c>
@@ -4630,10 +4659,10 @@
         <v>4301</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F128">
         <v>2018</v>
@@ -4642,13 +4671,13 @@
         <v>2</v>
       </c>
       <c r="H128" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I128">
         <v>88.71</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="1">
         <v>5</v>
       </c>
@@ -4659,10 +4688,10 @@
         <v>5101</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F129">
         <v>2018</v>
@@ -4671,13 +4700,13 @@
         <v>2</v>
       </c>
       <c r="H129" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I129">
         <v>34.33</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="1">
         <v>5</v>
       </c>
@@ -4688,10 +4717,10 @@
         <v>5102</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F130">
         <v>2018</v>
@@ -4700,13 +4729,13 @@
         <v>2</v>
       </c>
       <c r="H130" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I130">
         <v>71.52</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="1">
         <v>5</v>
       </c>
@@ -4717,10 +4746,10 @@
         <v>5103</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F131">
         <v>2018</v>
@@ -4729,13 +4758,13 @@
         <v>2</v>
       </c>
       <c r="H131" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I131">
         <v>72.03</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="1">
         <v>5</v>
       </c>
@@ -4746,10 +4775,10 @@
         <v>5105</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F132">
         <v>2018</v>
@@ -4758,13 +4787,13 @@
         <v>2</v>
       </c>
       <c r="H132" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I132">
         <v>20.260000000000002</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="1">
         <v>5</v>
       </c>
@@ -4775,11 +4804,11 @@
         <v>5107</v>
       </c>
       <c r="D133" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F133">
         <v>2018</v>
       </c>
@@ -4787,13 +4816,13 @@
         <v>2</v>
       </c>
       <c r="H133" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I133">
         <v>48.98</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="1">
         <v>5</v>
       </c>
@@ -4804,10 +4833,10 @@
         <v>5109</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F134">
         <v>2018</v>
@@ -4816,13 +4845,13 @@
         <v>2</v>
       </c>
       <c r="H134" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I134">
         <v>56.11</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="1">
         <v>5</v>
       </c>
@@ -4833,10 +4862,10 @@
         <v>5301</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F135">
         <v>2018</v>
@@ -4845,13 +4874,13 @@
         <v>2</v>
       </c>
       <c r="H135" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I135">
         <v>92.59</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="1">
         <v>5</v>
       </c>
@@ -4862,10 +4891,10 @@
         <v>5304</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F136">
         <v>2018</v>
@@ -4874,13 +4903,13 @@
         <v>2</v>
       </c>
       <c r="H136" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I136">
         <v>86.77</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="1">
         <v>5</v>
       </c>
@@ -4891,10 +4920,10 @@
         <v>5501</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F137">
         <v>2018</v>
@@ -4903,13 +4932,13 @@
         <v>2</v>
       </c>
       <c r="H137" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I137">
         <v>66.8</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="1">
         <v>5</v>
       </c>
@@ -4920,10 +4949,10 @@
         <v>5502</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F138">
         <v>2018</v>
@@ -4932,13 +4961,13 @@
         <v>2</v>
       </c>
       <c r="H138" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I138">
         <v>61.32</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="1">
         <v>5</v>
       </c>
@@ -4949,10 +4978,10 @@
         <v>5503</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F139">
         <v>2018</v>
@@ -4961,13 +4990,13 @@
         <v>2</v>
       </c>
       <c r="H139" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I139">
         <v>52.69</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="1">
         <v>5</v>
       </c>
@@ -4978,10 +5007,10 @@
         <v>5504</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F140">
         <v>2018</v>
@@ -4990,13 +5019,13 @@
         <v>2</v>
       </c>
       <c r="H140" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I140">
         <v>53.46</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="1">
         <v>5</v>
       </c>
@@ -5007,10 +5036,10 @@
         <v>5601</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F141">
         <v>2018</v>
@@ -5019,13 +5048,13 @@
         <v>2</v>
       </c>
       <c r="H141" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I141">
         <v>75.13</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="1">
         <v>5</v>
       </c>
@@ -5036,10 +5065,10 @@
         <v>5603</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F142">
         <v>2018</v>
@@ -5048,13 +5077,13 @@
         <v>2</v>
       </c>
       <c r="H142" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I142">
         <v>40.94</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="1">
         <v>5</v>
       </c>
@@ -5065,10 +5094,10 @@
         <v>5606</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F143">
         <v>2018</v>
@@ -5077,13 +5106,13 @@
         <v>2</v>
       </c>
       <c r="H143" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I143">
         <v>55.95</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="1">
         <v>5</v>
       </c>
@@ -5094,10 +5123,10 @@
         <v>5701</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F144">
         <v>2018</v>
@@ -5106,13 +5135,13 @@
         <v>2</v>
       </c>
       <c r="H144" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I144">
         <v>80.64</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="1">
         <v>5</v>
       </c>
@@ -5123,10 +5152,10 @@
         <v>5801</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F145">
         <v>2018</v>
@@ -5135,13 +5164,13 @@
         <v>2</v>
       </c>
       <c r="H145" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I145">
         <v>42.51</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" s="1">
         <v>5</v>
       </c>
@@ -5152,10 +5181,10 @@
         <v>5802</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F146">
         <v>2018</v>
@@ -5164,13 +5193,13 @@
         <v>2</v>
       </c>
       <c r="H146" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I146">
         <v>59.7</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="1">
         <v>5</v>
       </c>
@@ -5181,10 +5210,10 @@
         <v>5803</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F147">
         <v>2018</v>
@@ -5193,13 +5222,13 @@
         <v>2</v>
       </c>
       <c r="H147" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I147">
         <v>29.38</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="1">
         <v>5</v>
       </c>
@@ -5210,10 +5239,10 @@
         <v>5804</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F148">
         <v>2018</v>
@@ -5222,13 +5251,13 @@
         <v>2</v>
       </c>
       <c r="H148" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I148">
         <v>60.69</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="1">
         <v>6</v>
       </c>
@@ -5239,10 +5268,10 @@
         <v>6101</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F149">
         <v>2018</v>
@@ -5251,13 +5280,13 @@
         <v>2</v>
       </c>
       <c r="H149" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I149">
         <v>91.04</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" s="1">
         <v>6</v>
       </c>
@@ -5268,10 +5297,10 @@
         <v>6108</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F150">
         <v>2018</v>
@@ -5280,13 +5309,13 @@
         <v>2</v>
       </c>
       <c r="H150" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I150">
         <v>79.28</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="1">
         <v>6</v>
       </c>
@@ -5297,10 +5326,10 @@
         <v>6115</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F151">
         <v>2018</v>
@@ -5309,13 +5338,13 @@
         <v>2</v>
       </c>
       <c r="H151" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I151">
         <v>84.23</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="1">
         <v>6</v>
       </c>
@@ -5326,10 +5355,10 @@
         <v>6301</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F152">
         <v>2018</v>
@@ -5338,13 +5367,13 @@
         <v>2</v>
       </c>
       <c r="H152" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I152">
         <v>82.14</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" s="1">
         <v>7</v>
       </c>
@@ -5355,10 +5384,10 @@
         <v>7101</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F153">
         <v>2018</v>
@@ -5367,13 +5396,13 @@
         <v>2</v>
       </c>
       <c r="H153" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I153">
         <v>88.01</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" s="1">
         <v>7</v>
       </c>
@@ -5384,10 +5413,10 @@
         <v>7102</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F154">
         <v>2018</v>
@@ -5396,13 +5425,13 @@
         <v>2</v>
       </c>
       <c r="H154" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I154">
         <v>30.68</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="1">
         <v>7</v>
       </c>
@@ -5413,10 +5442,10 @@
         <v>7105</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F155">
         <v>2018</v>
@@ -5425,13 +5454,13 @@
         <v>2</v>
       </c>
       <c r="H155" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I155">
         <v>87.71</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" s="1">
         <v>7</v>
       </c>
@@ -5442,10 +5471,10 @@
         <v>7301</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F156">
         <v>2018</v>
@@ -5454,13 +5483,13 @@
         <v>2</v>
       </c>
       <c r="H156" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I156">
         <v>84.63</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" s="1">
         <v>7</v>
       </c>
@@ -5471,10 +5500,10 @@
         <v>7305</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F157">
         <v>2018</v>
@@ -5483,13 +5512,13 @@
         <v>2</v>
       </c>
       <c r="H157" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I157">
         <v>86.52</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" s="1">
         <v>7</v>
       </c>
@@ -5500,10 +5529,10 @@
         <v>7306</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F158">
         <v>2018</v>
@@ -5512,13 +5541,13 @@
         <v>2</v>
       </c>
       <c r="H158" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I158">
         <v>69.540000000000006</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" s="1">
         <v>7</v>
       </c>
@@ -5529,11 +5558,11 @@
         <v>7401</v>
       </c>
       <c r="D159" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F159">
         <v>2018</v>
       </c>
@@ -5541,13 +5570,13 @@
         <v>2</v>
       </c>
       <c r="H159" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I159">
         <v>84.88</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" s="1">
         <v>8</v>
       </c>
@@ -5558,10 +5587,10 @@
         <v>8101</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F160">
         <v>2018</v>
@@ -5570,13 +5599,13 @@
         <v>2</v>
       </c>
       <c r="H160" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I160">
         <v>71.3</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="1">
         <v>8</v>
       </c>
@@ -5587,10 +5616,10 @@
         <v>8102</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F161">
         <v>2018</v>
@@ -5599,13 +5628,13 @@
         <v>2</v>
       </c>
       <c r="H161" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I161">
         <v>82.01</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="1">
         <v>8</v>
       </c>
@@ -5616,10 +5645,10 @@
         <v>8103</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F162">
         <v>2018</v>
@@ -5628,13 +5657,13 @@
         <v>2</v>
       </c>
       <c r="H162" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I162">
         <v>73.98</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="1">
         <v>8</v>
       </c>
@@ -5645,10 +5674,10 @@
         <v>8105</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F163">
         <v>2018</v>
@@ -5657,13 +5686,13 @@
         <v>2</v>
       </c>
       <c r="H163" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I163">
         <v>65.209999999999994</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" s="1">
         <v>8</v>
       </c>
@@ -5674,10 +5703,10 @@
         <v>8106</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F164">
         <v>2018</v>
@@ -5686,13 +5715,13 @@
         <v>2</v>
       </c>
       <c r="H164" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I164">
         <v>58.47</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" s="1">
         <v>8</v>
       </c>
@@ -5703,11 +5732,11 @@
         <v>8107</v>
       </c>
       <c r="D165" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="F165">
         <v>2018</v>
       </c>
@@ -5715,13 +5744,13 @@
         <v>2</v>
       </c>
       <c r="H165" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I165">
         <v>77.099999999999994</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" s="1">
         <v>8</v>
       </c>
@@ -5732,10 +5761,10 @@
         <v>8108</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F166">
         <v>2018</v>
@@ -5744,13 +5773,13 @@
         <v>2</v>
       </c>
       <c r="H166" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I166">
         <v>83.03</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" s="1">
         <v>8</v>
       </c>
@@ -5761,10 +5790,10 @@
         <v>8109</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F167">
         <v>2018</v>
@@ -5773,13 +5802,13 @@
         <v>2</v>
       </c>
       <c r="H167" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I167">
         <v>80.260000000000005</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" s="1">
         <v>8</v>
       </c>
@@ -5790,10 +5819,10 @@
         <v>8110</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F168">
         <v>2018</v>
@@ -5802,13 +5831,13 @@
         <v>2</v>
       </c>
       <c r="H168" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I168">
         <v>67.17</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" s="1">
         <v>8</v>
       </c>
@@ -5819,10 +5848,10 @@
         <v>8111</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F169">
         <v>2018</v>
@@ -5831,13 +5860,13 @@
         <v>2</v>
       </c>
       <c r="H169" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I169">
         <v>24.74</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170" s="1">
         <v>8</v>
       </c>
@@ -5848,10 +5877,10 @@
         <v>8112</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F170">
         <v>2018</v>
@@ -5860,13 +5889,13 @@
         <v>2</v>
       </c>
       <c r="H170" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I170">
         <v>95.08</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" s="1">
         <v>8</v>
       </c>
@@ -5877,10 +5906,10 @@
         <v>8301</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F171">
         <v>2018</v>
@@ -5889,13 +5918,13 @@
         <v>2</v>
       </c>
       <c r="H171" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I171">
         <v>78.41</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" s="1">
         <v>8</v>
       </c>
@@ -5906,10 +5935,10 @@
         <v>8306</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F172">
         <v>2018</v>
@@ -5918,13 +5947,13 @@
         <v>2</v>
       </c>
       <c r="H172" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I172">
         <v>75</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" s="1">
         <v>9</v>
       </c>
@@ -5935,10 +5964,10 @@
         <v>9101</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F173">
         <v>2018</v>
@@ -5947,13 +5976,13 @@
         <v>2</v>
       </c>
       <c r="H173" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I173">
         <v>84.74</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" s="1">
         <v>9</v>
       </c>
@@ -5964,10 +5993,10 @@
         <v>9112</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F174">
         <v>2018</v>
@@ -5976,13 +6005,13 @@
         <v>2</v>
       </c>
       <c r="H174" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I174">
         <v>84.78</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="1">
         <v>9</v>
       </c>
@@ -5993,10 +6022,10 @@
         <v>9120</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F175">
         <v>2018</v>
@@ -6005,13 +6034,13 @@
         <v>2</v>
       </c>
       <c r="H175" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I175">
         <v>62.69</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="1">
         <v>9</v>
       </c>
@@ -6022,10 +6051,10 @@
         <v>9201</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F176">
         <v>2018</v>
@@ -6034,13 +6063,13 @@
         <v>2</v>
       </c>
       <c r="H176" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I176">
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="1">
         <v>10</v>
       </c>
@@ -6051,10 +6080,10 @@
         <v>10101</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F177">
         <v>2018</v>
@@ -6063,13 +6092,13 @@
         <v>2</v>
       </c>
       <c r="H177" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I177">
         <v>79.430000000000007</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="1">
         <v>10</v>
       </c>
@@ -6080,10 +6109,10 @@
         <v>10109</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F178">
         <v>2018</v>
@@ -6092,13 +6121,13 @@
         <v>2</v>
       </c>
       <c r="H178" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I178">
         <v>88.71</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" s="1">
         <v>10</v>
       </c>
@@ -6109,10 +6138,10 @@
         <v>10201</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F179">
         <v>2018</v>
@@ -6121,13 +6150,13 @@
         <v>2</v>
       </c>
       <c r="H179" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I179">
         <v>65.8</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" s="1">
         <v>10</v>
       </c>
@@ -6138,10 +6167,10 @@
         <v>10301</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F180">
         <v>2018</v>
@@ -6150,13 +6179,13 @@
         <v>2</v>
       </c>
       <c r="H180" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I180">
         <v>90.15</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" s="1">
         <v>11</v>
       </c>
@@ -6167,10 +6196,10 @@
         <v>11101</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F181">
         <v>2018</v>
@@ -6179,13 +6208,13 @@
         <v>2</v>
       </c>
       <c r="H181" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I181">
         <v>87.3</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="1">
         <v>12</v>
       </c>
@@ -6196,10 +6225,10 @@
         <v>12101</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F182">
         <v>2018</v>
@@ -6208,13 +6237,13 @@
         <v>2</v>
       </c>
       <c r="H182" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I182">
         <v>76.52</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="1">
         <v>13</v>
       </c>
@@ -6225,10 +6254,10 @@
         <v>13101</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F183">
         <v>2018</v>
@@ -6237,13 +6266,13 @@
         <v>2</v>
       </c>
       <c r="H183" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I183">
         <v>67.739999999999995</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" s="1">
         <v>13</v>
       </c>
@@ -6254,10 +6283,10 @@
         <v>13102</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F184">
         <v>2018</v>
@@ -6266,13 +6295,13 @@
         <v>2</v>
       </c>
       <c r="H184" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I184">
         <v>85.57</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" s="1">
         <v>13</v>
       </c>
@@ -6283,10 +6312,10 @@
         <v>13103</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F185">
         <v>2018</v>
@@ -6295,13 +6324,13 @@
         <v>2</v>
       </c>
       <c r="H185" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I185">
         <v>93.83</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" s="1">
         <v>13</v>
       </c>
@@ -6312,10 +6341,10 @@
         <v>13104</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F186">
         <v>2018</v>
@@ -6324,13 +6353,13 @@
         <v>2</v>
       </c>
       <c r="H186" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I186">
         <v>93.83</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="1">
         <v>13</v>
       </c>
@@ -6341,10 +6370,10 @@
         <v>13105</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F187">
         <v>2018</v>
@@ -6353,13 +6382,13 @@
         <v>2</v>
       </c>
       <c r="H187" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I187">
         <v>79.83</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188" s="1">
         <v>13</v>
       </c>
@@ -6370,10 +6399,10 @@
         <v>13106</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F188">
         <v>2018</v>
@@ -6382,13 +6411,13 @@
         <v>2</v>
       </c>
       <c r="H188" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I188">
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189" s="1">
         <v>13</v>
       </c>
@@ -6399,10 +6428,10 @@
         <v>13107</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F189">
         <v>2018</v>
@@ -6411,13 +6440,13 @@
         <v>2</v>
       </c>
       <c r="H189" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I189">
         <v>85.38</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" s="1">
         <v>13</v>
       </c>
@@ -6428,10 +6457,10 @@
         <v>13108</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F190">
         <v>2018</v>
@@ -6440,13 +6469,13 @@
         <v>2</v>
       </c>
       <c r="H190" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I190">
         <v>70.69</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" s="1">
         <v>13</v>
       </c>
@@ -6457,10 +6486,10 @@
         <v>13109</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F191">
         <v>2018</v>
@@ -6469,13 +6498,13 @@
         <v>2</v>
       </c>
       <c r="H191" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I191">
         <v>55.36</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192" s="1">
         <v>13</v>
       </c>
@@ -6486,10 +6515,10 @@
         <v>13110</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F192">
         <v>2018</v>
@@ -6498,13 +6527,13 @@
         <v>2</v>
       </c>
       <c r="H192" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I192">
         <v>91.35</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9">
       <c r="A193" s="1">
         <v>13</v>
       </c>
@@ -6515,10 +6544,10 @@
         <v>13111</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F193">
         <v>2018</v>
@@ -6527,13 +6556,13 @@
         <v>2</v>
       </c>
       <c r="H193" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I193">
         <v>87.02</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9">
       <c r="A194" s="1">
         <v>13</v>
       </c>
@@ -6544,10 +6573,10 @@
         <v>13112</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F194">
         <v>2018</v>
@@ -6556,13 +6585,13 @@
         <v>2</v>
       </c>
       <c r="H194" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I194">
         <v>95.61</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9">
       <c r="A195" s="1">
         <v>13</v>
       </c>
@@ -6573,10 +6602,10 @@
         <v>13113</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F195">
         <v>2018</v>
@@ -6585,13 +6614,13 @@
         <v>2</v>
       </c>
       <c r="H195" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I195">
         <v>52.83</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9">
       <c r="A196" s="1">
         <v>13</v>
       </c>
@@ -6602,10 +6631,10 @@
         <v>13114</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F196">
         <v>2018</v>
@@ -6614,13 +6643,13 @@
         <v>2</v>
       </c>
       <c r="H196" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I196">
         <v>73.87</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9">
       <c r="A197" s="1">
         <v>13</v>
       </c>
@@ -6631,10 +6660,10 @@
         <v>13115</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F197">
         <v>2018</v>
@@ -6643,13 +6672,13 @@
         <v>2</v>
       </c>
       <c r="H197" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I197">
         <v>64.2</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9">
       <c r="A198" s="1">
         <v>13</v>
       </c>
@@ -6660,10 +6689,10 @@
         <v>13116</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F198">
         <v>2018</v>
@@ -6672,13 +6701,13 @@
         <v>2</v>
       </c>
       <c r="H198" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I198">
         <v>92.07</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9">
       <c r="A199" s="1">
         <v>13</v>
       </c>
@@ -6689,10 +6718,10 @@
         <v>13117</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F199">
         <v>2018</v>
@@ -6701,13 +6730,13 @@
         <v>2</v>
       </c>
       <c r="H199" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I199">
         <v>95.41</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9">
       <c r="A200" s="1">
         <v>13</v>
       </c>
@@ -6718,10 +6747,10 @@
         <v>13118</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F200">
         <v>2018</v>
@@ -6730,13 +6759,13 @@
         <v>2</v>
       </c>
       <c r="H200" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I200">
         <v>86.37</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9">
       <c r="A201" s="1">
         <v>13</v>
       </c>
@@ -6747,10 +6776,10 @@
         <v>13119</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F201">
         <v>2018</v>
@@ -6759,13 +6788,13 @@
         <v>2</v>
       </c>
       <c r="H201" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I201">
         <v>97.12</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9">
       <c r="A202" s="1">
         <v>13</v>
       </c>
@@ -6776,10 +6805,10 @@
         <v>13120</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F202">
         <v>2018</v>
@@ -6788,13 +6817,13 @@
         <v>2</v>
       </c>
       <c r="H202" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I202">
         <v>63.2</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9">
       <c r="A203" s="1">
         <v>13</v>
       </c>
@@ -6805,10 +6834,10 @@
         <v>13121</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F203">
         <v>2018</v>
@@ -6817,13 +6846,13 @@
         <v>2</v>
       </c>
       <c r="H203" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I203">
         <v>85.08</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9">
       <c r="A204" s="1">
         <v>13</v>
       </c>
@@ -6834,10 +6863,10 @@
         <v>13122</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F204">
         <v>2018</v>
@@ -6846,13 +6875,13 @@
         <v>2</v>
       </c>
       <c r="H204" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I204">
         <v>90.24</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9">
       <c r="A205" s="1">
         <v>13</v>
       </c>
@@ -6863,10 +6892,10 @@
         <v>13123</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F205">
         <v>2018</v>
@@ -6875,13 +6904,13 @@
         <v>2</v>
       </c>
       <c r="H205" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I205">
         <v>64.36</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9">
       <c r="A206" s="1">
         <v>13</v>
       </c>
@@ -6892,10 +6921,10 @@
         <v>13124</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F206">
         <v>2018</v>
@@ -6904,13 +6933,13 @@
         <v>2</v>
       </c>
       <c r="H206" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I206">
         <v>94.55</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9">
       <c r="A207" s="1">
         <v>13</v>
       </c>
@@ -6921,10 +6950,10 @@
         <v>13125</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F207">
         <v>2018</v>
@@ -6933,13 +6962,13 @@
         <v>2</v>
       </c>
       <c r="H207" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I207">
         <v>94.18</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9">
       <c r="A208" s="1">
         <v>13</v>
       </c>
@@ -6950,10 +6979,10 @@
         <v>13126</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F208">
         <v>2018</v>
@@ -6962,13 +6991,13 @@
         <v>2</v>
       </c>
       <c r="H208" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I208">
         <v>63.21</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9">
       <c r="A209" s="1">
         <v>13</v>
       </c>
@@ -6979,10 +7008,10 @@
         <v>13127</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F209">
         <v>2018</v>
@@ -6991,13 +7020,13 @@
         <v>2</v>
       </c>
       <c r="H209" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I209">
         <v>82.59</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9">
       <c r="A210" s="1">
         <v>13</v>
       </c>
@@ -7008,10 +7037,10 @@
         <v>13128</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F210">
         <v>2018</v>
@@ -7020,13 +7049,13 @@
         <v>2</v>
       </c>
       <c r="H210" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I210">
         <v>90.99</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9">
       <c r="A211" s="1">
         <v>13</v>
       </c>
@@ -7037,10 +7066,10 @@
         <v>13129</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F211">
         <v>2018</v>
@@ -7049,13 +7078,13 @@
         <v>2</v>
       </c>
       <c r="H211" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I211">
         <v>84.01</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9">
       <c r="A212" s="1">
         <v>13</v>
       </c>
@@ -7066,10 +7095,10 @@
         <v>13130</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F212">
         <v>2018</v>
@@ -7078,13 +7107,13 @@
         <v>2</v>
       </c>
       <c r="H212" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I212">
         <v>47.17</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9">
       <c r="A213" s="1">
         <v>13</v>
       </c>
@@ -7095,10 +7124,10 @@
         <v>13131</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F213">
         <v>2018</v>
@@ -7107,13 +7136,13 @@
         <v>2</v>
       </c>
       <c r="H213" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I213">
         <v>84.98</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9">
       <c r="A214" s="1">
         <v>13</v>
       </c>
@@ -7124,10 +7153,10 @@
         <v>13132</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F214">
         <v>2018</v>
@@ -7136,13 +7165,13 @@
         <v>2</v>
       </c>
       <c r="H214" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I214">
         <v>55.96</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9">
       <c r="A215" s="1">
         <v>13</v>
       </c>
@@ -7153,10 +7182,10 @@
         <v>13201</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F215">
         <v>2018</v>
@@ -7165,13 +7194,13 @@
         <v>2</v>
       </c>
       <c r="H215" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I215">
         <v>94.59</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9">
       <c r="A216" s="1">
         <v>13</v>
       </c>
@@ -7182,10 +7211,10 @@
         <v>13202</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F216">
         <v>2018</v>
@@ -7194,13 +7223,13 @@
         <v>2</v>
       </c>
       <c r="H216" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I216">
         <v>32.93</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9">
       <c r="A217" s="1">
         <v>13</v>
       </c>
@@ -7211,10 +7240,10 @@
         <v>13203</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F217">
         <v>2018</v>
@@ -7223,13 +7252,13 @@
         <v>2</v>
       </c>
       <c r="H217" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I217">
         <v>39.6</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9">
       <c r="A218" s="1">
         <v>13</v>
       </c>
@@ -7240,10 +7269,10 @@
         <v>13301</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F218">
         <v>2018</v>
@@ -7252,13 +7281,13 @@
         <v>2</v>
       </c>
       <c r="H218" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I218">
         <v>75.209999999999994</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9">
       <c r="A219" s="1">
         <v>13</v>
       </c>
@@ -7269,10 +7298,10 @@
         <v>13302</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F219">
         <v>2018</v>
@@ -7281,13 +7310,13 @@
         <v>2</v>
       </c>
       <c r="H219" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I219">
         <v>70.36</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9">
       <c r="A220" s="1">
         <v>13</v>
       </c>
@@ -7298,10 +7327,10 @@
         <v>13303</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F220">
         <v>2018</v>
@@ -7310,13 +7339,13 @@
         <v>2</v>
       </c>
       <c r="H220" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I220">
         <v>51.88</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9">
       <c r="A221" s="1">
         <v>13</v>
       </c>
@@ -7327,10 +7356,10 @@
         <v>13401</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F221">
         <v>2018</v>
@@ -7339,13 +7368,13 @@
         <v>2</v>
       </c>
       <c r="H221" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I221">
         <v>88.99</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9">
       <c r="A222" s="1">
         <v>13</v>
       </c>
@@ -7356,10 +7385,10 @@
         <v>13402</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F222">
         <v>2018</v>
@@ -7368,13 +7397,13 @@
         <v>2</v>
       </c>
       <c r="H222" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I222">
         <v>82.94</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9">
       <c r="A223" s="1">
         <v>13</v>
       </c>
@@ -7385,10 +7414,10 @@
         <v>13403</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F223">
         <v>2018</v>
@@ -7397,13 +7426,13 @@
         <v>2</v>
       </c>
       <c r="H223" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I223">
         <v>64.14</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9">
       <c r="A224" s="1">
         <v>13</v>
       </c>
@@ -7414,10 +7443,10 @@
         <v>13404</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F224">
         <v>2018</v>
@@ -7426,13 +7455,13 @@
         <v>2</v>
       </c>
       <c r="H224" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I224">
         <v>67.739999999999995</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9">
       <c r="A225" s="1">
         <v>13</v>
       </c>
@@ -7443,10 +7472,10 @@
         <v>13501</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F225">
         <v>2018</v>
@@ -7455,13 +7484,13 @@
         <v>2</v>
       </c>
       <c r="H225" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I225">
         <v>69.62</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9">
       <c r="A226" s="1">
         <v>13</v>
       </c>
@@ -7472,10 +7501,10 @@
         <v>13601</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F226">
         <v>2018</v>
@@ -7484,13 +7513,13 @@
         <v>2</v>
       </c>
       <c r="H226" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I226">
         <v>87.58</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9">
       <c r="A227" s="1">
         <v>13</v>
       </c>
@@ -7501,10 +7530,10 @@
         <v>13602</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F227">
         <v>2018</v>
@@ -7513,13 +7542,13 @@
         <v>2</v>
       </c>
       <c r="H227" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I227">
         <v>72.87</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9">
       <c r="A228" s="1">
         <v>13</v>
       </c>
@@ -7530,10 +7559,10 @@
         <v>13603</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F228">
         <v>2018</v>
@@ -7542,13 +7571,13 @@
         <v>2</v>
       </c>
       <c r="H228" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I228">
         <v>56.74</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9">
       <c r="A229" s="1">
         <v>13</v>
       </c>
@@ -7559,10 +7588,10 @@
         <v>13604</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F229">
         <v>2018</v>
@@ -7571,13 +7600,13 @@
         <v>2</v>
       </c>
       <c r="H229" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I229">
         <v>82.22</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9">
       <c r="A230" s="1">
         <v>13</v>
       </c>
@@ -7588,10 +7617,10 @@
         <v>13605</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F230">
         <v>2018</v>
@@ -7600,13 +7629,13 @@
         <v>2</v>
       </c>
       <c r="H230" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I230">
         <v>72.17</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9">
       <c r="A231" s="1">
         <v>14</v>
       </c>
@@ -7617,10 +7646,10 @@
         <v>14101</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F231">
         <v>2018</v>
@@ -7629,13 +7658,13 @@
         <v>2</v>
       </c>
       <c r="H231" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I231">
         <v>76.48</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9">
       <c r="A232" s="1">
         <v>15</v>
       </c>
@@ -7646,10 +7675,10 @@
         <v>15101</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F232">
         <v>2018</v>
@@ -7658,13 +7687,13 @@
         <v>2</v>
       </c>
       <c r="H232" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I232">
         <v>76.03</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9">
       <c r="A233" s="1">
         <v>16</v>
       </c>
@@ -7675,10 +7704,10 @@
         <v>16101</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F233">
         <v>2018</v>
@@ -7687,13 +7716,13 @@
         <v>2</v>
       </c>
       <c r="H233" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I233">
         <v>86.27</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9">
       <c r="A234" s="1">
         <v>16</v>
       </c>
@@ -7704,10 +7733,10 @@
         <v>16103</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F234">
         <v>2018</v>
@@ -7716,13 +7745,13 @@
         <v>2</v>
       </c>
       <c r="H234" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I234">
         <v>68.680000000000007</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9">
       <c r="A235" s="1">
         <v>16</v>
       </c>
@@ -7733,10 +7762,10 @@
         <v>16301</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F235">
         <v>2018</v>
@@ -7745,7 +7774,7 @@
         <v>2</v>
       </c>
       <c r="H235" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I235">
         <v>83.61</v>
@@ -7761,62 +7790,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="12" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="409.6">
+      <c r="A11" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Vivienda/28.6.xlsx
+++ b/Vivienda/28.6.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0835D499-3E4E-4742-A3B8-97FD0B118DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Poblacion cumple estandar dist " sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
     <t>http://siedu.ine.cl/descargar/INDICADORES.rar</t>
   </si>
   <si>
-    <t>definicion</t>
+    <t>Definicion</t>
   </si>
   <si>
     <t xml:space="preserve">El indicador mide la capacidad de carga de la oferta de las plazas públicas del área urbana respecto a la población. Entendiendo, la “población” como la sumatoria de los habitantes por manzana del Censo 2017 existente en las manzanas que cumplen con el estándar de distancia de 400 metros a plazas públicas (indicador BPU_20) y considerando a la “superficie de plazas públicas del área urbana” como la sumatoria de la superficie de aquellas plazas públicas donde la población se encuentra a 400 metros o menos de distancia, expresada en metros cuadrados. Esto evalúa mediante análisis de redes y la matriz origen – destino.
@@ -519,14 +519,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,16 +680,6 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Link" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03513DF4-6C2A-4824-93DE-7B6D2FC05902}" name="Tabla2" displayName="Tabla2" ref="A10:A12" totalsRowShown="0">
-  <autoFilter ref="A10:A12" xr:uid="{A23C45B0-F6B6-4303-BA1C-19D2CDCF0821}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DF238850-6CA7-4A94-BD0F-2BF0D3B648EA}" name="definicion"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -7790,10 +7783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7802,7 +7795,7 @@
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>139</v>
       </c>
@@ -7810,7 +7803,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -7818,7 +7811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>138</v>
       </c>
@@ -7826,7 +7819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -7834,7 +7827,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -7842,22 +7835,25 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5" ht="194.25" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="409.6">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>146</v>
       </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B11:E11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>